--- a/2019/总体管理/Levi‘s CMS Operation&Maintenance Request List_CNHK.xlsx
+++ b/2019/总体管理/Levi‘s CMS Operation&Maintenance Request List_CNHK.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\File Server\Tree Sapling\03 Levi's\gitCube-levisProject\2019\总体管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A4AB7D8-D80A-4876-8B90-CAA99B48C9A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64462644-96BB-49CF-BAD2-7D1D6C815C4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="972" yWindow="-108" windowWidth="22176" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="65">
   <si>
     <t>*</t>
   </si>
@@ -295,9 +295,6 @@
     <t>2019/10/15</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>陈</t>
   </si>
   <si>
@@ -322,7 +319,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="8">
+  <numFmts count="9">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
@@ -331,6 +328,7 @@
     <numFmt numFmtId="179" formatCode="m/d;@"/>
     <numFmt numFmtId="180" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="181" formatCode="0000\ "/>
+    <numFmt numFmtId="182" formatCode="0_ "/>
   </numFmts>
   <fonts count="19">
     <font>
@@ -604,7 +602,7 @@
     <xf numFmtId="178" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -788,6 +786,14 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="182" fontId="17" fillId="8" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="182" fontId="17" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -3200,7 +3206,7 @@
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="F2" sqref="F2"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="A66" sqref="A66:XFD74"/>
+      <selection pane="bottomRight" activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="12"/>
@@ -3513,26 +3519,26 @@
       <c r="M6" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="40" t="s">
+      <c r="N6" s="52">
+        <v>2</v>
+      </c>
+      <c r="O6" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="O6" s="41" t="s">
+      <c r="P6" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="P6" s="44" t="s">
+      <c r="Q6" s="42" t="s">
         <v>63</v>
-      </c>
-      <c r="Q6" s="42" t="s">
-        <v>64</v>
       </c>
       <c r="R6" s="43">
         <v>43753</v>
       </c>
       <c r="S6" s="41" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="T6" s="43" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U6" s="50"/>
       <c r="V6" s="51"/>
@@ -3562,7 +3568,7 @@
       <c r="K7" s="29"/>
       <c r="L7" s="29"/>
       <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
+      <c r="N7" s="53"/>
       <c r="O7" s="30"/>
       <c r="P7" s="45"/>
       <c r="Q7" s="32"/>
@@ -3607,7 +3613,7 @@
       <c r="K8" s="29"/>
       <c r="L8" s="29"/>
       <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
+      <c r="N8" s="53"/>
       <c r="O8" s="30"/>
       <c r="P8" s="45"/>
       <c r="Q8" s="32"/>
@@ -3652,7 +3658,7 @@
       <c r="K9" s="29"/>
       <c r="L9" s="29"/>
       <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
+      <c r="N9" s="53"/>
       <c r="O9" s="30"/>
       <c r="P9" s="45"/>
       <c r="Q9" s="32"/>
@@ -3697,7 +3703,7 @@
       <c r="K10" s="29"/>
       <c r="L10" s="29"/>
       <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
+      <c r="N10" s="53"/>
       <c r="O10" s="30"/>
       <c r="P10" s="45"/>
       <c r="Q10" s="32"/>
@@ -3740,7 +3746,7 @@
       <c r="K11" s="29"/>
       <c r="L11" s="29"/>
       <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
+      <c r="N11" s="53"/>
       <c r="O11" s="30"/>
       <c r="P11" s="45"/>
       <c r="Q11" s="32"/>
@@ -3779,7 +3785,7 @@
       <c r="K12" s="29"/>
       <c r="L12" s="29"/>
       <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
+      <c r="N12" s="53"/>
       <c r="O12" s="30"/>
       <c r="P12" s="45"/>
       <c r="Q12" s="32"/>
@@ -3816,7 +3822,7 @@
       <c r="K13" s="29"/>
       <c r="L13" s="29"/>
       <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
+      <c r="N13" s="53"/>
       <c r="O13" s="30"/>
       <c r="P13" s="45"/>
       <c r="Q13" s="32"/>
@@ -3851,7 +3857,7 @@
       <c r="K14" s="29"/>
       <c r="L14" s="29"/>
       <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
+      <c r="N14" s="53"/>
       <c r="O14" s="30"/>
       <c r="P14" s="45"/>
       <c r="Q14" s="32"/>
@@ -3886,7 +3892,7 @@
       <c r="K15" s="29"/>
       <c r="L15" s="29"/>
       <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
+      <c r="N15" s="53"/>
       <c r="O15" s="30"/>
       <c r="P15" s="45"/>
       <c r="Q15" s="32"/>
@@ -3921,7 +3927,7 @@
       <c r="K16" s="29"/>
       <c r="L16" s="29"/>
       <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
+      <c r="N16" s="53"/>
       <c r="O16" s="30"/>
       <c r="P16" s="45"/>
       <c r="Q16" s="32"/>
@@ -3956,7 +3962,7 @@
       <c r="K17" s="29"/>
       <c r="L17" s="29"/>
       <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
+      <c r="N17" s="53"/>
       <c r="O17" s="30"/>
       <c r="P17" s="45"/>
       <c r="Q17" s="32"/>
@@ -3991,7 +3997,7 @@
       <c r="K18" s="29"/>
       <c r="L18" s="29"/>
       <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
+      <c r="N18" s="53"/>
       <c r="O18" s="30"/>
       <c r="P18" s="45"/>
       <c r="Q18" s="32"/>
@@ -4026,7 +4032,7 @@
       <c r="K19" s="29"/>
       <c r="L19" s="29"/>
       <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
+      <c r="N19" s="53"/>
       <c r="O19" s="30"/>
       <c r="P19" s="45"/>
       <c r="Q19" s="32"/>
@@ -4061,7 +4067,7 @@
       <c r="K20" s="29"/>
       <c r="L20" s="29"/>
       <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
+      <c r="N20" s="53"/>
       <c r="O20" s="30"/>
       <c r="P20" s="45"/>
       <c r="Q20" s="32"/>
@@ -4096,7 +4102,7 @@
       <c r="K21" s="29"/>
       <c r="L21" s="29"/>
       <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
+      <c r="N21" s="53"/>
       <c r="O21" s="30"/>
       <c r="P21" s="45"/>
       <c r="Q21" s="32"/>
@@ -4131,7 +4137,7 @@
       <c r="K22" s="29"/>
       <c r="L22" s="29"/>
       <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
+      <c r="N22" s="53"/>
       <c r="O22" s="30"/>
       <c r="P22" s="45"/>
       <c r="Q22" s="32"/>
@@ -4166,7 +4172,7 @@
       <c r="K23" s="29"/>
       <c r="L23" s="29"/>
       <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
+      <c r="N23" s="53"/>
       <c r="O23" s="30"/>
       <c r="P23" s="45"/>
       <c r="Q23" s="32"/>
@@ -4201,7 +4207,7 @@
       <c r="K24" s="29"/>
       <c r="L24" s="29"/>
       <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
+      <c r="N24" s="53"/>
       <c r="O24" s="30"/>
       <c r="P24" s="45"/>
       <c r="Q24" s="32"/>
@@ -4236,7 +4242,7 @@
       <c r="K25" s="29"/>
       <c r="L25" s="29"/>
       <c r="M25" s="29"/>
-      <c r="N25" s="29"/>
+      <c r="N25" s="53"/>
       <c r="O25" s="30"/>
       <c r="P25" s="45"/>
       <c r="Q25" s="32"/>
@@ -4271,7 +4277,7 @@
       <c r="K26" s="29"/>
       <c r="L26" s="29"/>
       <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
+      <c r="N26" s="53"/>
       <c r="O26" s="30"/>
       <c r="P26" s="45"/>
       <c r="Q26" s="32"/>
@@ -4306,7 +4312,7 @@
       <c r="K27" s="29"/>
       <c r="L27" s="29"/>
       <c r="M27" s="29"/>
-      <c r="N27" s="29"/>
+      <c r="N27" s="53"/>
       <c r="O27" s="30"/>
       <c r="P27" s="45"/>
       <c r="Q27" s="32"/>
@@ -4341,7 +4347,7 @@
       <c r="K28" s="29"/>
       <c r="L28" s="29"/>
       <c r="M28" s="29"/>
-      <c r="N28" s="29"/>
+      <c r="N28" s="53"/>
       <c r="O28" s="30"/>
       <c r="P28" s="45"/>
       <c r="Q28" s="32"/>
@@ -4376,7 +4382,7 @@
       <c r="K29" s="29"/>
       <c r="L29" s="29"/>
       <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
+      <c r="N29" s="53"/>
       <c r="O29" s="30"/>
       <c r="P29" s="45"/>
       <c r="Q29" s="32"/>
@@ -4411,7 +4417,7 @@
       <c r="K30" s="29"/>
       <c r="L30" s="29"/>
       <c r="M30" s="29"/>
-      <c r="N30" s="29"/>
+      <c r="N30" s="53"/>
       <c r="O30" s="30"/>
       <c r="P30" s="45"/>
       <c r="Q30" s="32"/>
@@ -4446,7 +4452,7 @@
       <c r="K31" s="29"/>
       <c r="L31" s="29"/>
       <c r="M31" s="29"/>
-      <c r="N31" s="29"/>
+      <c r="N31" s="53"/>
       <c r="O31" s="30"/>
       <c r="P31" s="45"/>
       <c r="Q31" s="32"/>
@@ -4481,7 +4487,7 @@
       <c r="K32" s="29"/>
       <c r="L32" s="29"/>
       <c r="M32" s="29"/>
-      <c r="N32" s="29"/>
+      <c r="N32" s="53"/>
       <c r="O32" s="30"/>
       <c r="P32" s="45"/>
       <c r="Q32" s="32"/>
@@ -4516,7 +4522,7 @@
       <c r="K33" s="29"/>
       <c r="L33" s="29"/>
       <c r="M33" s="29"/>
-      <c r="N33" s="29"/>
+      <c r="N33" s="53"/>
       <c r="O33" s="30"/>
       <c r="P33" s="45"/>
       <c r="Q33" s="32"/>
@@ -4551,7 +4557,7 @@
       <c r="K34" s="29"/>
       <c r="L34" s="29"/>
       <c r="M34" s="29"/>
-      <c r="N34" s="29"/>
+      <c r="N34" s="53"/>
       <c r="O34" s="30"/>
       <c r="P34" s="45"/>
       <c r="Q34" s="32"/>
@@ -4586,7 +4592,7 @@
       <c r="K35" s="29"/>
       <c r="L35" s="29"/>
       <c r="M35" s="29"/>
-      <c r="N35" s="29"/>
+      <c r="N35" s="53"/>
       <c r="O35" s="30"/>
       <c r="P35" s="45"/>
       <c r="Q35" s="32"/>
@@ -4621,7 +4627,7 @@
       <c r="K36" s="29"/>
       <c r="L36" s="29"/>
       <c r="M36" s="29"/>
-      <c r="N36" s="29"/>
+      <c r="N36" s="53"/>
       <c r="O36" s="30"/>
       <c r="P36" s="45"/>
       <c r="Q36" s="32"/>
@@ -4656,7 +4662,7 @@
       <c r="K37" s="29"/>
       <c r="L37" s="29"/>
       <c r="M37" s="29"/>
-      <c r="N37" s="29"/>
+      <c r="N37" s="53"/>
       <c r="O37" s="30"/>
       <c r="P37" s="45"/>
       <c r="Q37" s="32"/>
@@ -4691,7 +4697,7 @@
       <c r="K38" s="29"/>
       <c r="L38" s="29"/>
       <c r="M38" s="29"/>
-      <c r="N38" s="29"/>
+      <c r="N38" s="53"/>
       <c r="O38" s="30"/>
       <c r="P38" s="45"/>
       <c r="Q38" s="32"/>
@@ -4726,7 +4732,7 @@
       <c r="K39" s="29"/>
       <c r="L39" s="29"/>
       <c r="M39" s="29"/>
-      <c r="N39" s="29"/>
+      <c r="N39" s="53"/>
       <c r="O39" s="30"/>
       <c r="P39" s="45"/>
       <c r="Q39" s="32"/>
@@ -4761,7 +4767,7 @@
       <c r="K40" s="29"/>
       <c r="L40" s="29"/>
       <c r="M40" s="29"/>
-      <c r="N40" s="29"/>
+      <c r="N40" s="53"/>
       <c r="O40" s="30"/>
       <c r="P40" s="45"/>
       <c r="Q40" s="32"/>
@@ -4796,7 +4802,7 @@
       <c r="K41" s="29"/>
       <c r="L41" s="29"/>
       <c r="M41" s="29"/>
-      <c r="N41" s="29"/>
+      <c r="N41" s="53"/>
       <c r="O41" s="30"/>
       <c r="P41" s="45"/>
       <c r="Q41" s="32"/>
@@ -4831,7 +4837,7 @@
       <c r="K42" s="29"/>
       <c r="L42" s="29"/>
       <c r="M42" s="29"/>
-      <c r="N42" s="29"/>
+      <c r="N42" s="53"/>
       <c r="O42" s="30"/>
       <c r="P42" s="45"/>
       <c r="Q42" s="32"/>
@@ -4866,7 +4872,7 @@
       <c r="K43" s="29"/>
       <c r="L43" s="29"/>
       <c r="M43" s="29"/>
-      <c r="N43" s="29"/>
+      <c r="N43" s="53"/>
       <c r="O43" s="30"/>
       <c r="P43" s="45"/>
       <c r="Q43" s="32"/>
@@ -4901,7 +4907,7 @@
       <c r="K44" s="29"/>
       <c r="L44" s="29"/>
       <c r="M44" s="29"/>
-      <c r="N44" s="29"/>
+      <c r="N44" s="53"/>
       <c r="O44" s="30"/>
       <c r="P44" s="45"/>
       <c r="Q44" s="32"/>
@@ -4936,7 +4942,7 @@
       <c r="K45" s="29"/>
       <c r="L45" s="29"/>
       <c r="M45" s="29"/>
-      <c r="N45" s="29"/>
+      <c r="N45" s="53"/>
       <c r="O45" s="30"/>
       <c r="P45" s="45"/>
       <c r="Q45" s="32"/>
@@ -4971,7 +4977,7 @@
       <c r="K46" s="29"/>
       <c r="L46" s="29"/>
       <c r="M46" s="29"/>
-      <c r="N46" s="29"/>
+      <c r="N46" s="53"/>
       <c r="O46" s="30"/>
       <c r="P46" s="45"/>
       <c r="Q46" s="32"/>
@@ -5006,7 +5012,7 @@
       <c r="K47" s="29"/>
       <c r="L47" s="29"/>
       <c r="M47" s="29"/>
-      <c r="N47" s="29"/>
+      <c r="N47" s="53"/>
       <c r="O47" s="30"/>
       <c r="P47" s="45"/>
       <c r="Q47" s="32"/>
@@ -5041,7 +5047,7 @@
       <c r="K48" s="29"/>
       <c r="L48" s="29"/>
       <c r="M48" s="29"/>
-      <c r="N48" s="29"/>
+      <c r="N48" s="53"/>
       <c r="O48" s="30"/>
       <c r="P48" s="45"/>
       <c r="Q48" s="32"/>
@@ -5076,7 +5082,7 @@
       <c r="K49" s="29"/>
       <c r="L49" s="29"/>
       <c r="M49" s="29"/>
-      <c r="N49" s="29"/>
+      <c r="N49" s="53"/>
       <c r="O49" s="30"/>
       <c r="P49" s="45"/>
       <c r="Q49" s="32"/>
@@ -5111,7 +5117,7 @@
       <c r="K50" s="29"/>
       <c r="L50" s="29"/>
       <c r="M50" s="29"/>
-      <c r="N50" s="29"/>
+      <c r="N50" s="53"/>
       <c r="O50" s="30"/>
       <c r="P50" s="45"/>
       <c r="Q50" s="32"/>
@@ -5146,7 +5152,7 @@
       <c r="K51" s="29"/>
       <c r="L51" s="29"/>
       <c r="M51" s="29"/>
-      <c r="N51" s="29"/>
+      <c r="N51" s="53"/>
       <c r="O51" s="30"/>
       <c r="P51" s="45"/>
       <c r="Q51" s="32"/>
@@ -5174,7 +5180,7 @@
       <c r="K52" s="29"/>
       <c r="L52" s="29"/>
       <c r="M52" s="29"/>
-      <c r="N52" s="29"/>
+      <c r="N52" s="53"/>
       <c r="O52" s="30"/>
       <c r="P52" s="45"/>
       <c r="Q52" s="32"/>
@@ -5202,7 +5208,7 @@
       <c r="K53" s="29"/>
       <c r="L53" s="29"/>
       <c r="M53" s="29"/>
-      <c r="N53" s="29"/>
+      <c r="N53" s="53"/>
       <c r="O53" s="30"/>
       <c r="P53" s="45"/>
       <c r="Q53" s="32"/>
@@ -5230,7 +5236,7 @@
       <c r="K54" s="29"/>
       <c r="L54" s="29"/>
       <c r="M54" s="29"/>
-      <c r="N54" s="29"/>
+      <c r="N54" s="53"/>
       <c r="O54" s="30"/>
       <c r="P54" s="45"/>
       <c r="Q54" s="32"/>
@@ -5258,7 +5264,7 @@
       <c r="K55" s="29"/>
       <c r="L55" s="29"/>
       <c r="M55" s="29"/>
-      <c r="N55" s="29"/>
+      <c r="N55" s="53"/>
       <c r="O55" s="30"/>
       <c r="P55" s="45"/>
       <c r="Q55" s="32"/>
@@ -5286,7 +5292,7 @@
       <c r="K56" s="29"/>
       <c r="L56" s="29"/>
       <c r="M56" s="29"/>
-      <c r="N56" s="29"/>
+      <c r="N56" s="53"/>
       <c r="O56" s="30"/>
       <c r="P56" s="45"/>
       <c r="Q56" s="32"/>
@@ -5315,7 +5321,7 @@
       <c r="K57" s="29"/>
       <c r="L57" s="29"/>
       <c r="M57" s="29"/>
-      <c r="N57" s="29"/>
+      <c r="N57" s="53"/>
       <c r="O57" s="30"/>
       <c r="P57" s="45"/>
       <c r="Q57" s="32"/>
@@ -5344,7 +5350,7 @@
       <c r="K58" s="29"/>
       <c r="L58" s="29"/>
       <c r="M58" s="29"/>
-      <c r="N58" s="29"/>
+      <c r="N58" s="53"/>
       <c r="O58" s="30"/>
       <c r="P58" s="45"/>
       <c r="Q58" s="32"/>
@@ -5373,7 +5379,7 @@
       <c r="K59" s="29"/>
       <c r="L59" s="29"/>
       <c r="M59" s="29"/>
-      <c r="N59" s="29"/>
+      <c r="N59" s="53"/>
       <c r="O59" s="30"/>
       <c r="P59" s="45"/>
       <c r="Q59" s="32"/>
@@ -5402,7 +5408,7 @@
       <c r="K60" s="29"/>
       <c r="L60" s="29"/>
       <c r="M60" s="29"/>
-      <c r="N60" s="29"/>
+      <c r="N60" s="53"/>
       <c r="O60" s="30"/>
       <c r="P60" s="45"/>
       <c r="Q60" s="32"/>
@@ -5431,7 +5437,7 @@
       <c r="K61" s="29"/>
       <c r="L61" s="29"/>
       <c r="M61" s="29"/>
-      <c r="N61" s="29"/>
+      <c r="N61" s="53"/>
       <c r="O61" s="30"/>
       <c r="P61" s="45"/>
       <c r="Q61" s="32"/>
@@ -5460,7 +5466,7 @@
       <c r="K62" s="29"/>
       <c r="L62" s="29"/>
       <c r="M62" s="29"/>
-      <c r="N62" s="29"/>
+      <c r="N62" s="53"/>
       <c r="O62" s="30"/>
       <c r="P62" s="45"/>
       <c r="Q62" s="32"/>
@@ -5489,7 +5495,7 @@
       <c r="K63" s="29"/>
       <c r="L63" s="29"/>
       <c r="M63" s="29"/>
-      <c r="N63" s="29"/>
+      <c r="N63" s="53"/>
       <c r="O63" s="30"/>
       <c r="P63" s="45"/>
       <c r="Q63" s="32"/>
@@ -5517,7 +5523,7 @@
       <c r="K64" s="29"/>
       <c r="L64" s="29"/>
       <c r="M64" s="29"/>
-      <c r="N64" s="29"/>
+      <c r="N64" s="53"/>
       <c r="O64" s="30"/>
       <c r="P64" s="45"/>
       <c r="Q64" s="32"/>
@@ -5545,7 +5551,7 @@
       <c r="K65" s="29"/>
       <c r="L65" s="29"/>
       <c r="M65" s="29"/>
-      <c r="N65" s="29"/>
+      <c r="N65" s="53"/>
       <c r="O65" s="30"/>
       <c r="P65" s="45"/>
       <c r="Q65" s="32"/>
@@ -5559,6 +5565,51 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="61">
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="U28:V28"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="U40:V40"/>
+    <mergeCell ref="U29:V29"/>
+    <mergeCell ref="U30:V30"/>
+    <mergeCell ref="U31:V31"/>
+    <mergeCell ref="U32:V32"/>
+    <mergeCell ref="U33:V33"/>
+    <mergeCell ref="U34:V34"/>
+    <mergeCell ref="U35:V35"/>
+    <mergeCell ref="U36:V36"/>
+    <mergeCell ref="U37:V37"/>
+    <mergeCell ref="U38:V38"/>
+    <mergeCell ref="U39:V39"/>
+    <mergeCell ref="U47:V47"/>
+    <mergeCell ref="U48:V48"/>
+    <mergeCell ref="U49:V49"/>
+    <mergeCell ref="U50:V50"/>
+    <mergeCell ref="U51:V51"/>
+    <mergeCell ref="U42:V42"/>
+    <mergeCell ref="U43:V43"/>
+    <mergeCell ref="U44:V44"/>
+    <mergeCell ref="U45:V45"/>
+    <mergeCell ref="U46:V46"/>
     <mergeCell ref="U7:V7"/>
     <mergeCell ref="U65:V65"/>
     <mergeCell ref="U59:V59"/>
@@ -5575,51 +5626,6 @@
     <mergeCell ref="U58:V58"/>
     <mergeCell ref="U52:V52"/>
     <mergeCell ref="U41:V41"/>
-    <mergeCell ref="U42:V42"/>
-    <mergeCell ref="U43:V43"/>
-    <mergeCell ref="U44:V44"/>
-    <mergeCell ref="U45:V45"/>
-    <mergeCell ref="U46:V46"/>
-    <mergeCell ref="U47:V47"/>
-    <mergeCell ref="U48:V48"/>
-    <mergeCell ref="U49:V49"/>
-    <mergeCell ref="U50:V50"/>
-    <mergeCell ref="U51:V51"/>
-    <mergeCell ref="U40:V40"/>
-    <mergeCell ref="U29:V29"/>
-    <mergeCell ref="U30:V30"/>
-    <mergeCell ref="U31:V31"/>
-    <mergeCell ref="U32:V32"/>
-    <mergeCell ref="U33:V33"/>
-    <mergeCell ref="U34:V34"/>
-    <mergeCell ref="U35:V35"/>
-    <mergeCell ref="U36:V36"/>
-    <mergeCell ref="U37:V37"/>
-    <mergeCell ref="U38:V38"/>
-    <mergeCell ref="U39:V39"/>
-    <mergeCell ref="U28:V28"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="U25:V25"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="U15:V15"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="R27:T27 R30:T30 Q31:S31 F58:F63 G29:G30 F31:G31 G56:G63 F25:G28 F51:G55 D25:E31 D51:E63 D32:G50 Q28:T29 Q10:T25 Q9 C6:Q6 O9:O25 C9:C29 D9:G24 C8:U8 S6:U6 D64:G65 C31:C65 P9:P65 H9:N65 Q51:T65 U10:U65">
